--- a/Testfälle_Furniture-sale.xlsx
+++ b/Testfälle_Furniture-sale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jona\TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\PycharmProjects\ImplementTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54809CF0-6566-4933-A254-611E907FFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81610006-5722-4181-BC93-4F7CD0CBABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C7ACE917-55F1-4026-B0D6-F9C278EF8D5B}"/>
   </bookViews>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9030E-58A3-452A-9B19-9D14A9FF0B28}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
